--- a/data/trans_orig/Q17B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17B-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1025655818633216</v>
+        <v>0.09740709971245956</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1245061258894047</v>
+        <v>0.1228186387836622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1354776055893105</v>
+        <v>0.1341929906316065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0408252222385023</v>
+        <v>0.04041177179140307</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1625688419152554</v>
+        <v>0.1632785916605546</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2355427558427943</v>
+        <v>0.2377309089618806</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2277823498761695</v>
+        <v>0.227264981885209</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1735821668867303</v>
+        <v>0.1715189719926351</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1412141706885864</v>
+        <v>0.1418794085472072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1895298088122357</v>
+        <v>0.1898579584320711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.193879455269151</v>
+        <v>0.196261352591685</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1146777935075673</v>
+        <v>0.1157035732695343</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1696627594566187</v>
+        <v>0.1723231389688158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2131799893832657</v>
+        <v>0.213216585078029</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2184685011780884</v>
+        <v>0.2181566949975042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.126557354851686</v>
+        <v>0.123604503053092</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2416545025115768</v>
+        <v>0.2470186475957588</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3605599290196508</v>
+        <v>0.3676551245196923</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.394110141567054</v>
+        <v>0.4020035793499144</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.411086613153345</v>
+        <v>0.4129653963882894</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1968890840331174</v>
+        <v>0.1968926322760413</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2650059176169997</v>
+        <v>0.2676509799333913</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2904643948971387</v>
+        <v>0.2840969496077691</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2345602044288654</v>
+        <v>0.2396262503124432</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1006605664815277</v>
+        <v>0.0997936108307509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1635167469772628</v>
+        <v>0.1629442290208224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.148025922729722</v>
+        <v>0.1502036027747364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1502758307218989</v>
+        <v>0.1508152147095335</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2490777746751562</v>
+        <v>0.2453819309950134</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2823388498474397</v>
+        <v>0.2858849131419496</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3075522829201615</v>
+        <v>0.3107375528913184</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2337166157428096</v>
+        <v>0.2362851944169404</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1782050054591652</v>
+        <v>0.1788441901315836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.231917994211613</v>
+        <v>0.2311253629722497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2400871200513176</v>
+        <v>0.2418524838055446</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2065598323422503</v>
+        <v>0.209641605470799</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1802372701251652</v>
+        <v>0.1789090642831048</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2600336354155735</v>
+        <v>0.2561166541273003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2366127839709042</v>
+        <v>0.2340427729030336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2708741392520733</v>
+        <v>0.2806569477148856</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3587380705351758</v>
+        <v>0.3565105772570462</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3961215816072757</v>
+        <v>0.3963340746630233</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5235048289198411</v>
+        <v>0.5177439625402327</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3579206788172242</v>
+        <v>0.3525821150766135</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2444330352601702</v>
+        <v>0.2434269549241138</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3045105302248377</v>
+        <v>0.3063362991592165</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3546508890850595</v>
+        <v>0.3556211538090317</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2920303113189701</v>
+        <v>0.2915920815977707</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1591812841237102</v>
+        <v>0.1567175514553875</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1973820597708376</v>
+        <v>0.1963253994228162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2141710607307194</v>
+        <v>0.2154582754498083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1469600111703021</v>
+        <v>0.1440536189362562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2941259659492427</v>
+        <v>0.2913999356367208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3090426704909696</v>
+        <v>0.312922890325422</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2580339416366424</v>
+        <v>0.2574439560431034</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2446574970507753</v>
+        <v>0.2455426179326448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2390026496819954</v>
+        <v>0.2403131001493875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2703230058902771</v>
+        <v>0.2690331053204139</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2459653417492374</v>
+        <v>0.2488815508036602</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2063150937246516</v>
+        <v>0.2071275706367159</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.273879906973516</v>
+        <v>0.2751417974600831</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3075191452559432</v>
+        <v>0.3119530613348135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3237973869016366</v>
+        <v>0.3268455767031808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2390390698231737</v>
+        <v>0.2376385163230385</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.407575253011186</v>
+        <v>0.4087855739398724</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4180889772953489</v>
+        <v>0.4225420024410707</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3486778368990833</v>
+        <v>0.3548643674840546</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.339435611109555</v>
+        <v>0.3396430428195914</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3219763767124447</v>
+        <v>0.3203983575674221</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3462492821184427</v>
+        <v>0.3480044455000185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3216102489680304</v>
+        <v>0.3224927034469378</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2732223048767008</v>
+        <v>0.2745153511327756</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.3467050394046329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2452640628182929</v>
+        <v>0.2452640628182928</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3634818567343783</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1528515252372086</v>
+        <v>0.1507872375832422</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.172775596399649</v>
+        <v>0.1740550733685075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2858905507822166</v>
+        <v>0.2847776349405735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2026133113210713</v>
+        <v>0.2042837198656689</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3041202236892233</v>
+        <v>0.304350689462439</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3497980560830689</v>
+        <v>0.3436772293224065</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2815231131889</v>
+        <v>0.2903512401848317</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.277511553528385</v>
+        <v>0.2779000319162527</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2383078225245545</v>
+        <v>0.2396970234939187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2697798003452759</v>
+        <v>0.2732268249338361</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3034821761759977</v>
+        <v>0.3017779408992226</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.252051430156179</v>
+        <v>0.2520131089491357</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2488310199846146</v>
+        <v>0.2495284809290865</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2582214799224056</v>
+        <v>0.2667909882626457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4476693831214154</v>
+        <v>0.4407162156849053</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3041481293602659</v>
+        <v>0.3024214713659101</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4281878630683572</v>
+        <v>0.4294780673573744</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4625155707193104</v>
+        <v>0.4667546885378067</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4131239886104822</v>
+        <v>0.4238990581354246</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3588947202767517</v>
+        <v>0.3595357562829588</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3159283763793611</v>
+        <v>0.3177163072780491</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3443635759034265</v>
+        <v>0.34627386546685</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4095850710753159</v>
+        <v>0.4028691918028356</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3138784004689812</v>
+        <v>0.3148428559120505</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.404686368639465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2955965534408433</v>
+        <v>0.2955965534408432</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.443511234700704</v>
@@ -1237,7 +1237,7 @@
         <v>0.4630194238088601</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3322875978267528</v>
+        <v>0.3322875978267529</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3267550211240761</v>
+        <v>0.3262253560949013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3484183302171207</v>
+        <v>0.3497205751564521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3253932845766608</v>
+        <v>0.3230759844233274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2504027788132304</v>
+        <v>0.2532152839170153</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3834956196677188</v>
+        <v>0.3852279304476618</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3723971735437345</v>
+        <v>0.3650590708215284</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4357421312460919</v>
+        <v>0.440944987450873</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3201014170182315</v>
+        <v>0.3179526284532767</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3733659829744402</v>
+        <v>0.3712530383745637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3737926721870425</v>
+        <v>0.3766360417919841</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4001493322281765</v>
+        <v>0.4052434582467559</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2965053661012303</v>
+        <v>0.2965936977509931</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4703489646641885</v>
+        <v>0.4701861078416921</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5262224479195754</v>
+        <v>0.5336386864923558</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5540196173084638</v>
+        <v>0.5561163951646224</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3516318427678953</v>
+        <v>0.3528187570174364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5266693407663272</v>
+        <v>0.5215032028097535</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4899561201234509</v>
+        <v>0.489517343233984</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6313477343828429</v>
+        <v>0.6379430003826908</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4617564295956775</v>
+        <v>0.4607956068310083</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4769481394733153</v>
+        <v>0.4680964930711186</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4867360698698776</v>
+        <v>0.4864897110232105</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5480083009445874</v>
+        <v>0.5586197873701114</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3804649389451121</v>
+        <v>0.3794541473446136</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.5912785611022577</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3824062922786915</v>
+        <v>0.3824062922786914</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5176671076484586</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4619194006505872</v>
+        <v>0.4578093037992941</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4468172281205617</v>
+        <v>0.4477614652173073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4148665600148423</v>
+        <v>0.4162053877530095</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3074975597013252</v>
+        <v>0.3111314963645293</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4411646380101002</v>
+        <v>0.433458483559329</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4906988641374666</v>
+        <v>0.496567077682286</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5166704884332746</v>
+        <v>0.5089673658306503</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3343841449064421</v>
+        <v>0.3396379336861289</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4645094050367561</v>
+        <v>0.4651522687459609</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4986990422358637</v>
+        <v>0.5031078714947865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4934106357010076</v>
+        <v>0.4886813361687761</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3380354376313555</v>
+        <v>0.3401524537499402</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7574323156308628</v>
+        <v>0.7338195010642394</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6196976347862723</v>
+        <v>0.6237595913308334</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5977749237043424</v>
+        <v>0.6040843540410599</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5007425000539465</v>
+        <v>0.4986784912037949</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5561605796576055</v>
+        <v>0.5558312333836825</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8473603873563187</v>
+        <v>0.8789496820546893</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6773337459376403</v>
+        <v>0.6768369317196192</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4317606307276557</v>
+        <v>0.4347193781064812</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6169547602394576</v>
+        <v>0.609745098299312</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.698512783149109</v>
+        <v>0.7082813880564928</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6044120905649016</v>
+        <v>0.6071964271090254</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4436323518670601</v>
+        <v>0.4475396417404086</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.5515408381840233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.361960458157289</v>
+        <v>0.3619604581572891</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6205522412183664</v>
@@ -1509,7 +1509,7 @@
         <v>0.5752031819475258</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3804544667446029</v>
+        <v>0.380454466744603</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4031381512900508</v>
+        <v>0.4108811252326326</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4878569287555475</v>
+        <v>0.482808476407369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4499797696836919</v>
+        <v>0.4573138973121025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3018379932434881</v>
+        <v>0.2977201386942651</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5203557761311819</v>
+        <v>0.5244251960342331</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5417285457503325</v>
+        <v>0.5390455022862966</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4908615980344879</v>
+        <v>0.4954950268426255</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3442338057749032</v>
+        <v>0.3408987258746898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5006922811252608</v>
+        <v>0.5027907490536948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5440315249481937</v>
+        <v>0.5414208716512315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5002813491795883</v>
+        <v>0.500400404604838</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3447824360948722</v>
+        <v>0.344112322860198</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.577698663452502</v>
+        <v>0.563955822044681</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.710588779459016</v>
+        <v>0.7405096841993641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6741044370114525</v>
+        <v>0.69434725079288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4303924734349824</v>
+        <v>0.4347481050871125</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.802926043486504</v>
+        <v>0.812604133626336</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.703125013395462</v>
+        <v>0.7040300798382768</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7472365729435004</v>
+        <v>0.7631747106605388</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4439140438247022</v>
+        <v>0.4440472719639121</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6891117409728119</v>
+        <v>0.6817207322005461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6778905583884176</v>
+        <v>0.6715305019313859</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6939632885660385</v>
+        <v>0.6782625307837068</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.418626508645894</v>
+        <v>0.4220809283337275</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2223508262355751</v>
+        <v>0.2247945128815714</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2693889954369457</v>
+        <v>0.2695694340333222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2944426338998805</v>
+        <v>0.2942812570537492</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2229922592494844</v>
+        <v>0.2219275606773781</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.349380570992816</v>
+        <v>0.3488840077446005</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.388680487993786</v>
+        <v>0.3907303662003321</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3866222611553609</v>
+        <v>0.3867445570550246</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3091228736294823</v>
+        <v>0.3076235287115126</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2925043637280257</v>
+        <v>0.2938224964240619</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3367263179059801</v>
+        <v>0.3375311644497682</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3490276696376404</v>
+        <v>0.3469184945795845</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2719513437787776</v>
+        <v>0.2714795420397094</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2706638929588864</v>
+        <v>0.2698081180901004</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3177432287227003</v>
+        <v>0.3162802719795306</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3521187748867936</v>
+        <v>0.3494214841120754</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2656608419511788</v>
+        <v>0.2664636409785814</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3993892187775253</v>
+        <v>0.398031113045364</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4470047290488278</v>
+        <v>0.4437975952008312</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.450713340696379</v>
+        <v>0.4517997138827833</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.35342270208973</v>
+        <v>0.3536737395644183</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3277968356275481</v>
+        <v>0.3278481728783765</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3738905798963744</v>
+        <v>0.3742463302094531</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3928256171925845</v>
+        <v>0.3913707732952462</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.304122857192486</v>
+        <v>0.3023123328817635</v>
       </c>
     </row>
     <row r="28">
